--- a/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
+++ b/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="airports" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="915">
   <si>
     <t>Airports</t>
   </si>
@@ -2299,9 +2299,6 @@
   </si>
   <si>
     <t>Check the airline of flight #1035</t>
-  </si>
-  <si>
-    <t>SELECT flightNumber FROM Airlines</t>
   </si>
   <si>
     <t xml:space="preserve">1001;1002;1003;1004;1005;1006;1007;1008;1009;1010;1011;1012;1013;1014;1015;1016;1017;1018;1019;1020;1021;1022;1023;1024;1025;1026;1027;1028;1029;1030;1031;1032;1033;1034;1035;
@@ -2759,6 +2756,12 @@
   </si>
   <si>
     <t>SELECT isMealincluded FROM Airlines WHERE flightNumber = 1001;</t>
+  </si>
+  <si>
+    <t>London;Paris;Sydney;Berlin;Munich;New-York;Kiev;Budapest;Beijing;Prague;Helsinki;Ottava;Vilnius;Milan;Barcelona;</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines;</t>
   </si>
 </sst>
 </file>
@@ -2882,7 +2885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2964,15 +2967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3034,6 +3028,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3081,7 +3078,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3116,7 +3113,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3328,17 +3325,17 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C3" sqref="C3:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="57.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -3384,8 +3381,10 @@
       <c r="D3" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="30" t="s">
+        <v>913</v>
+      </c>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -3396,8 +3395,8 @@
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="31"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="37"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -3408,8 +3407,8 @@
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -3420,8 +3419,8 @@
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="37"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -3432,8 +3431,8 @@
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="37"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -3444,8 +3443,8 @@
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="37"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -3456,8 +3455,8 @@
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -3468,8 +3467,8 @@
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="31"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="37"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -3480,8 +3479,8 @@
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="31"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="37"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -3492,8 +3491,8 @@
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -3504,8 +3503,8 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -3516,8 +3515,8 @@
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="37"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -3528,8 +3527,8 @@
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="37"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -3540,8 +3539,8 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="37"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -3552,8 +3551,8 @@
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="38"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -4054,18 +4053,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="54.25" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -4098,7 +4097,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4114,7 +4113,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -4130,7 +4129,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -4146,7 +4145,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -4162,7 +4161,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -4178,7 +4177,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -4194,7 +4193,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4210,7 +4209,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -4226,7 +4225,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -4242,7 +4241,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -4306,7 +4305,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -4322,7 +4321,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -4338,7 +4337,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -4354,7 +4353,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -4370,7 +4369,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -4386,7 +4385,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -4402,7 +4401,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -4418,7 +4417,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -4434,7 +4433,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -4450,7 +4449,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -4466,7 +4465,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -4482,7 +4481,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -4498,7 +4497,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -4514,7 +4513,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -4530,7 +4529,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -4546,7 +4545,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -4562,7 +4561,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -4594,7 +4593,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -4610,7 +4609,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -4626,7 +4625,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -4642,7 +4641,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -5218,7 +5217,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -5234,7 +5233,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -5250,7 +5249,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -5266,7 +5265,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -5282,7 +5281,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -5298,7 +5297,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -5314,7 +5313,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -5330,7 +5329,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -5346,7 +5345,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -5362,7 +5361,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -5378,7 +5377,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -5394,7 +5393,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -5410,7 +5409,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -5426,7 +5425,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -5442,7 +5441,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -5458,7 +5457,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -5474,7 +5473,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -5490,7 +5489,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -5506,7 +5505,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -5522,7 +5521,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -5538,7 +5537,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>91</v>
       </c>
@@ -5554,7 +5553,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -5570,7 +5569,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>93</v>
       </c>
@@ -5586,7 +5585,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>94</v>
       </c>
@@ -5602,7 +5601,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>95</v>
       </c>
@@ -5618,7 +5617,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>96</v>
       </c>
@@ -5634,7 +5633,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>97</v>
       </c>
@@ -5650,7 +5649,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>98</v>
       </c>
@@ -5666,7 +5665,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>99</v>
       </c>
@@ -5682,7 +5681,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>100</v>
       </c>
@@ -5698,7 +5697,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>101</v>
       </c>
@@ -5714,7 +5713,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>102</v>
       </c>
@@ -5730,7 +5729,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>103</v>
       </c>
@@ -5746,7 +5745,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>104</v>
       </c>
@@ -5762,7 +5761,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>105</v>
       </c>
@@ -5778,7 +5777,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>106</v>
       </c>
@@ -5794,7 +5793,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>107</v>
       </c>
@@ -5810,7 +5809,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>108</v>
       </c>
@@ -5826,7 +5825,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>109</v>
       </c>
@@ -5842,7 +5841,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>110</v>
       </c>
@@ -5858,7 +5857,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>111</v>
       </c>
@@ -5874,7 +5873,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>112</v>
       </c>
@@ -5890,7 +5889,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>113</v>
       </c>
@@ -5906,7 +5905,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>114</v>
       </c>
@@ -5922,7 +5921,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>115</v>
       </c>
@@ -5938,7 +5937,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>116</v>
       </c>
@@ -5954,7 +5953,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>117</v>
       </c>
@@ -5970,7 +5969,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>118</v>
       </c>
@@ -5986,7 +5985,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>119</v>
       </c>
@@ -6002,7 +6001,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>120</v>
       </c>
@@ -6018,7 +6017,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>121</v>
       </c>
@@ -6034,7 +6033,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>122</v>
       </c>
@@ -6050,7 +6049,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>123</v>
       </c>
@@ -6066,7 +6065,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>124</v>
       </c>
@@ -6082,7 +6081,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>125</v>
       </c>
@@ -6098,7 +6097,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>126</v>
       </c>
@@ -6114,7 +6113,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>127</v>
       </c>
@@ -6130,7 +6129,7 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>128</v>
       </c>
@@ -6146,7 +6145,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>129</v>
       </c>
@@ -6162,7 +6161,7 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>130</v>
       </c>
@@ -6178,7 +6177,7 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>131</v>
       </c>
@@ -6194,7 +6193,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>132</v>
       </c>
@@ -6210,7 +6209,7 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>133</v>
       </c>
@@ -6226,7 +6225,7 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>134</v>
       </c>
@@ -6242,7 +6241,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>135</v>
       </c>
@@ -6258,7 +6257,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>136</v>
       </c>
@@ -6274,7 +6273,7 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>137</v>
       </c>
@@ -6290,7 +6289,7 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>138</v>
       </c>
@@ -6306,7 +6305,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>139</v>
       </c>
@@ -6322,7 +6321,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>140</v>
       </c>
@@ -6898,7 +6897,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>176</v>
       </c>
@@ -6914,7 +6913,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>177</v>
       </c>
@@ -6930,7 +6929,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>178</v>
       </c>
@@ -6946,7 +6945,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>179</v>
       </c>
@@ -6962,7 +6961,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>180</v>
       </c>
@@ -6978,7 +6977,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>181</v>
       </c>
@@ -6994,7 +6993,7 @@
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>182</v>
       </c>
@@ -7010,7 +7009,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>183</v>
       </c>
@@ -7026,7 +7025,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>184</v>
       </c>
@@ -7042,7 +7041,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>185</v>
       </c>
@@ -7058,7 +7057,7 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>186</v>
       </c>
@@ -7074,7 +7073,7 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>187</v>
       </c>
@@ -7090,7 +7089,7 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>188</v>
       </c>
@@ -7106,7 +7105,7 @@
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>189</v>
       </c>
@@ -7122,7 +7121,7 @@
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>190</v>
       </c>
@@ -7138,7 +7137,7 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>191</v>
       </c>
@@ -7154,7 +7153,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>192</v>
       </c>
@@ -7170,7 +7169,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>193</v>
       </c>
@@ -7186,7 +7185,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>194</v>
       </c>
@@ -7202,7 +7201,7 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>195</v>
       </c>
@@ -7218,7 +7217,7 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>196</v>
       </c>
@@ -7234,7 +7233,7 @@
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>197</v>
       </c>
@@ -7250,7 +7249,7 @@
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>198</v>
       </c>
@@ -7266,7 +7265,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>199</v>
       </c>
@@ -7282,7 +7281,7 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>200</v>
       </c>
@@ -7298,7 +7297,7 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>201</v>
       </c>
@@ -7314,7 +7313,7 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>202</v>
       </c>
@@ -7330,7 +7329,7 @@
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>203</v>
       </c>
@@ -7346,7 +7345,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>204</v>
       </c>
@@ -7362,7 +7361,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>205</v>
       </c>
@@ -7378,7 +7377,7 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>206</v>
       </c>
@@ -7394,7 +7393,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>207</v>
       </c>
@@ -7410,7 +7409,7 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>208</v>
       </c>
@@ -7426,7 +7425,7 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>209</v>
       </c>
@@ -7442,7 +7441,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>210</v>
       </c>
@@ -7519,18 +7518,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="55" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -7570,14 +7569,14 @@
       <c r="B3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="36" t="s">
+        <v>914</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>761</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>762</v>
-      </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -7586,10 +7585,10 @@
       <c r="B4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -7598,10 +7597,10 @@
       <c r="B5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="49"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -7610,10 +7609,10 @@
       <c r="B6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="49"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -7622,10 +7621,10 @@
       <c r="B7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="49"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -7634,10 +7633,10 @@
       <c r="B8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="49"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -7646,10 +7645,10 @@
       <c r="B9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="49"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -7658,10 +7657,10 @@
       <c r="B10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="49"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -7670,10 +7669,10 @@
       <c r="B11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="49"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -7682,10 +7681,10 @@
       <c r="B12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="49"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -7694,10 +7693,10 @@
       <c r="B13" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="49"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -7706,10 +7705,10 @@
       <c r="B14" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="49"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -7718,10 +7717,10 @@
       <c r="B15" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="49"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -7730,10 +7729,10 @@
       <c r="B16" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="49"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -7742,10 +7741,10 @@
       <c r="B17" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="49"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -7754,10 +7753,10 @@
       <c r="B18" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -7766,10 +7765,10 @@
       <c r="B19" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="49"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -7778,10 +7777,10 @@
       <c r="B20" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="49"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -7790,10 +7789,10 @@
       <c r="B21" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="49"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -7802,10 +7801,10 @@
       <c r="B22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="49"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="46"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -7814,10 +7813,10 @@
       <c r="B23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="49"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -7826,10 +7825,10 @@
       <c r="B24" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="49"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -7838,10 +7837,10 @@
       <c r="B25" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="49"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -7850,10 +7849,10 @@
       <c r="B26" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="49"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -7862,10 +7861,10 @@
       <c r="B27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="49"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -7874,10 +7873,10 @@
       <c r="B28" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="49"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -7886,10 +7885,10 @@
       <c r="B29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="49"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -7898,10 +7897,10 @@
       <c r="B30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="49"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -7910,10 +7909,10 @@
       <c r="B31" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="49"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -7922,10 +7921,10 @@
       <c r="B32" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="49"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -7934,10 +7933,10 @@
       <c r="B33" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="49"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="46"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
@@ -7946,10 +7945,10 @@
       <c r="B34" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="49"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
@@ -7958,10 +7957,10 @@
       <c r="B35" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="49"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
@@ -7970,10 +7969,10 @@
       <c r="B36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="49"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
@@ -7982,12 +7981,12 @@
       <c r="B37" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="50"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="38"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="47"/>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -7995,15 +7994,15 @@
         <v>726</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -8011,15 +8010,15 @@
         <v>727</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -8027,15 +8026,15 @@
         <v>728</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -8043,15 +8042,15 @@
         <v>729</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -8059,15 +8058,15 @@
         <v>730</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -8075,15 +8074,15 @@
         <v>731</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -8091,15 +8090,15 @@
         <v>732</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -8107,15 +8106,15 @@
         <v>733</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -8123,15 +8122,15 @@
         <v>734</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -8139,15 +8138,15 @@
         <v>735</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -8155,15 +8154,15 @@
         <v>736</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -8171,15 +8170,15 @@
         <v>737</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -8187,15 +8186,15 @@
         <v>738</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -8203,15 +8202,15 @@
         <v>739</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -8219,15 +8218,15 @@
         <v>740</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -8235,15 +8234,15 @@
         <v>741</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -8251,15 +8250,15 @@
         <v>742</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -8267,15 +8266,15 @@
         <v>743</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -8283,15 +8282,15 @@
         <v>744</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -8299,15 +8298,15 @@
         <v>745</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -8315,15 +8314,15 @@
         <v>746</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -8331,15 +8330,15 @@
         <v>747</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -8347,15 +8346,15 @@
         <v>748</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -8363,15 +8362,15 @@
         <v>749</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -8379,15 +8378,15 @@
         <v>750</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -8395,15 +8394,15 @@
         <v>751</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -8411,15 +8410,15 @@
         <v>752</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -8427,15 +8426,15 @@
         <v>753</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -8443,15 +8442,15 @@
         <v>754</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -8459,15 +8458,15 @@
         <v>755</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -8475,15 +8474,15 @@
         <v>756</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -8491,15 +8490,15 @@
         <v>757</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -8507,15 +8506,15 @@
         <v>758</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -8523,15 +8522,15 @@
         <v>759</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -8539,15 +8538,15 @@
         <v>760</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>84</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>206</v>
@@ -8563,7 +8562,7 @@
       <c r="E73" s="17"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>87</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>239</v>
@@ -8579,7 +8578,7 @@
       <c r="E74" s="17"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>197</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>239</v>
@@ -8595,7 +8594,7 @@
       <c r="E75" s="17"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>206</v>
@@ -8611,7 +8610,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -8619,7 +8618,7 @@
         <v>95</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>239</v>
@@ -8627,7 +8626,7 @@
       <c r="E77" s="17"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -8635,7 +8634,7 @@
         <v>98</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>206</v>
@@ -8643,7 +8642,7 @@
       <c r="E78" s="17"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -8651,7 +8650,7 @@
         <v>102</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>206</v>
@@ -8659,7 +8658,7 @@
       <c r="E79" s="17"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -8667,7 +8666,7 @@
         <v>105</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>206</v>
@@ -8675,7 +8674,7 @@
       <c r="E80" s="17"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -8683,7 +8682,7 @@
         <v>108</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>239</v>
@@ -8691,7 +8690,7 @@
       <c r="E81" s="17"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -8699,7 +8698,7 @@
         <v>112</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>239</v>
@@ -8707,7 +8706,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -8715,7 +8714,7 @@
         <v>115</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>206</v>
@@ -8723,7 +8722,7 @@
       <c r="E83" s="17"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -8731,7 +8730,7 @@
         <v>119</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>239</v>
@@ -8739,7 +8738,7 @@
       <c r="E84" s="17"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>123</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>239</v>
@@ -8755,7 +8754,7 @@
       <c r="E85" s="17"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>127</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>239</v>
@@ -8771,7 +8770,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -8779,7 +8778,7 @@
         <v>130</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>206</v>
@@ -8787,7 +8786,7 @@
       <c r="E87" s="17"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -8795,7 +8794,7 @@
         <v>133</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>206</v>
@@ -8803,7 +8802,7 @@
       <c r="E88" s="17"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>136</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>239</v>
@@ -8819,7 +8818,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -8827,7 +8826,7 @@
         <v>140</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>206</v>
@@ -8835,7 +8834,7 @@
       <c r="E90" s="17"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -8843,7 +8842,7 @@
         <v>144</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>239</v>
@@ -8851,7 +8850,7 @@
       <c r="E91" s="17"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>147</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>206</v>
@@ -8867,7 +8866,7 @@
       <c r="E92" s="17"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>91</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>150</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>239</v>
@@ -8883,7 +8882,7 @@
       <c r="E93" s="17"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -8891,7 +8890,7 @@
         <v>153</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>239</v>
@@ -8899,7 +8898,7 @@
       <c r="E94" s="17"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>93</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>155</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>206</v>
@@ -8915,7 +8914,7 @@
       <c r="E95" s="17"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>94</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>158</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>239</v>
@@ -8931,7 +8930,7 @@
       <c r="E96" s="17"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>95</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>161</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>206</v>
@@ -8947,7 +8946,7 @@
       <c r="E97" s="17"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>96</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>164</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>206</v>
@@ -8963,7 +8962,7 @@
       <c r="E98" s="17"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>97</v>
       </c>
@@ -8971,7 +8970,7 @@
         <v>168</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>239</v>
@@ -8979,7 +8978,7 @@
       <c r="E99" s="17"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>98</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>171</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>239</v>
@@ -8995,7 +8994,7 @@
       <c r="E100" s="17"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>99</v>
       </c>
@@ -9003,7 +9002,7 @@
         <v>175</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>206</v>
@@ -9011,7 +9010,7 @@
       <c r="E101" s="17"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>100</v>
       </c>
@@ -9019,7 +9018,7 @@
         <v>179</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>206</v>
@@ -9027,7 +9026,7 @@
       <c r="E102" s="17"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>101</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>182</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>206</v>
@@ -9043,7 +9042,7 @@
       <c r="E103" s="17"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>102</v>
       </c>
@@ -9051,7 +9050,7 @@
         <v>185</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>206</v>
@@ -9059,7 +9058,7 @@
       <c r="E104" s="17"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>103</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>188</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>239</v>
@@ -9075,7 +9074,7 @@
       <c r="E105" s="17"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>104</v>
       </c>
@@ -9083,7 +9082,7 @@
         <v>191</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>239</v>
@@ -9091,7 +9090,7 @@
       <c r="E106" s="17"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>105</v>
       </c>
@@ -9099,7 +9098,7 @@
         <v>194</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>239</v>
@@ -9115,7 +9114,7 @@
         <v>85</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>239</v>
@@ -9131,7 +9130,7 @@
         <v>88</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>239</v>
@@ -9147,7 +9146,7 @@
         <v>198</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>206</v>
@@ -9163,7 +9162,7 @@
         <v>93</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>206</v>
@@ -9179,7 +9178,7 @@
         <v>96</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>239</v>
@@ -9195,7 +9194,7 @@
         <v>99</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>239</v>
@@ -9211,7 +9210,7 @@
         <v>103</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>239</v>
@@ -9227,7 +9226,7 @@
         <v>106</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>239</v>
@@ -9243,7 +9242,7 @@
         <v>109</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>239</v>
@@ -9259,7 +9258,7 @@
         <v>113</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>206</v>
@@ -9275,7 +9274,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>206</v>
@@ -9291,7 +9290,7 @@
         <v>120</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>206</v>
@@ -9307,7 +9306,7 @@
         <v>124</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>206</v>
@@ -9323,7 +9322,7 @@
         <v>128</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>206</v>
@@ -9339,7 +9338,7 @@
         <v>131</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>239</v>
@@ -9355,7 +9354,7 @@
         <v>134</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>206</v>
@@ -9371,7 +9370,7 @@
         <v>137</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>239</v>
@@ -9387,7 +9386,7 @@
         <v>141</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>206</v>
@@ -9403,7 +9402,7 @@
         <v>145</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>239</v>
@@ -9419,7 +9418,7 @@
         <v>148</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>239</v>
@@ -9435,7 +9434,7 @@
         <v>151</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>239</v>
@@ -9451,7 +9450,7 @@
         <v>167</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>239</v>
@@ -9467,7 +9466,7 @@
         <v>156</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>206</v>
@@ -9483,7 +9482,7 @@
         <v>159</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>239</v>
@@ -9499,7 +9498,7 @@
         <v>162</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>206</v>
@@ -9515,7 +9514,7 @@
         <v>165</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>239</v>
@@ -9531,7 +9530,7 @@
         <v>169</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>206</v>
@@ -9547,7 +9546,7 @@
         <v>172</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>239</v>
@@ -9563,7 +9562,7 @@
         <v>176</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>206</v>
@@ -9579,7 +9578,7 @@
         <v>180</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>239</v>
@@ -9595,7 +9594,7 @@
         <v>183</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>239</v>
@@ -9611,7 +9610,7 @@
         <v>186</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>206</v>
@@ -9627,7 +9626,7 @@
         <v>189</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>206</v>
@@ -9643,7 +9642,7 @@
         <v>192</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>206</v>
@@ -9659,7 +9658,7 @@
         <v>195</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>206</v>
@@ -9675,7 +9674,7 @@
         <v>86</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>239</v>
@@ -9691,7 +9690,7 @@
         <v>89</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>239</v>
@@ -9707,7 +9706,7 @@
         <v>91</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>239</v>
@@ -9723,7 +9722,7 @@
         <v>94</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>206</v>
@@ -9739,7 +9738,7 @@
         <v>97</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>206</v>
@@ -9755,7 +9754,7 @@
         <v>100</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>206</v>
@@ -9771,7 +9770,7 @@
         <v>104</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>206</v>
@@ -9787,7 +9786,7 @@
         <v>107</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>206</v>
@@ -9803,7 +9802,7 @@
         <v>110</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>239</v>
@@ -9819,7 +9818,7 @@
         <v>114</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>206</v>
@@ -9835,7 +9834,7 @@
         <v>117</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>239</v>
@@ -9851,7 +9850,7 @@
         <v>121</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>206</v>
@@ -9867,7 +9866,7 @@
         <v>125</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>206</v>
@@ -9883,7 +9882,7 @@
         <v>129</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>206</v>
@@ -9899,7 +9898,7 @@
         <v>132</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>239</v>
@@ -9915,7 +9914,7 @@
         <v>135</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>239</v>
@@ -9931,7 +9930,7 @@
         <v>138</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>239</v>
@@ -9947,7 +9946,7 @@
         <v>142</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>206</v>
@@ -9963,7 +9962,7 @@
         <v>146</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>239</v>
@@ -9979,7 +9978,7 @@
         <v>149</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>206</v>
@@ -9995,7 +9994,7 @@
         <v>152</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>239</v>
@@ -10011,7 +10010,7 @@
         <v>154</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>239</v>
@@ -10027,7 +10026,7 @@
         <v>157</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>206</v>
@@ -10043,7 +10042,7 @@
         <v>160</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>239</v>
@@ -10059,7 +10058,7 @@
         <v>163</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>206</v>
@@ -10075,7 +10074,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>206</v>
@@ -10091,7 +10090,7 @@
         <v>170</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>239</v>
@@ -10107,7 +10106,7 @@
         <v>173</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>239</v>
@@ -10123,7 +10122,7 @@
         <v>177</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>206</v>
@@ -10139,7 +10138,7 @@
         <v>181</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>239</v>
@@ -10155,7 +10154,7 @@
         <v>184</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>206</v>
@@ -10171,7 +10170,7 @@
         <v>187</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>239</v>
@@ -10187,7 +10186,7 @@
         <v>190</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>239</v>
@@ -10203,7 +10202,7 @@
         <v>193</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>206</v>
@@ -10219,7 +10218,7 @@
         <v>196</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>239</v>

--- a/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
+++ b/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="airports" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="960">
   <si>
     <t>Airports</t>
   </si>
@@ -633,9 +633,6 @@
     <t>SQL query</t>
   </si>
   <si>
-    <t>SELECT airport FROM Airports</t>
-  </si>
-  <si>
     <t>yes;</t>
   </si>
   <si>
@@ -741,9 +738,6 @@
     <t>SELECT flightNumber FROM Flights WHERE departureAirport = 'London' AND arrivalAirport = 'New York';</t>
   </si>
   <si>
-    <t>London;Paris;Sydney;Berlin;Munich;New York;Kiev;Budapest;Beijing;Prague;Helsinki;Ottava;Vilnius;Milan;Barcelona;</t>
-  </si>
-  <si>
     <t>SELECT flightNumber FROM Flights WHERE departureAirport = 'London' AND arrivalAirport = 'Ottava';</t>
   </si>
   <si>
@@ -2301,10 +2295,6 @@
     <t>Check the airline of flight #1035</t>
   </si>
   <si>
-    <t xml:space="preserve">1001;1002;1003;1004;1005;1006;1007;1008;1009;1010;1011;1012;1013;1014;1015;1016;1017;1018;1019;1020;1021;1022;1023;1024;1025;1026;1027;1028;1029;1030;1031;1032;1033;1034;1035;
-</t>
-  </si>
-  <si>
     <t>SELECT airline FROM Airlines WHERE flightNumber = 1001;</t>
   </si>
   <si>
@@ -2758,10 +2748,154 @@
     <t>SELECT isMealincluded FROM Airlines WHERE flightNumber = 1001;</t>
   </si>
   <si>
-    <t>London;Paris;Sydney;Berlin;Munich;New-York;Kiev;Budapest;Beijing;Prague;Helsinki;Ottava;Vilnius;Milan;Barcelona;</t>
-  </si>
-  <si>
-    <t>SELECT flightNumber FROM Airlines;</t>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1001 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1009 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1022 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1026 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1002 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1003 AND airline = 'Lufthansa';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1004 AND airline = 'Lufthansa';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1005 AND airline = 'Lufthansa';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1006 AND airline = 'Lufthansa';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1013 AND airline = 'AirAsia';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1014 AND airline = 'Virgin';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1015 AND airline = 'Virgin';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1016 AND airline = 'Virgin';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1017 AND airline = 'AirAsia';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1018 AND airline = 'Emirates';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1019 AND airline = 'Ryanair';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1020 AND airline = 'AirAsia';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1023 AND airline = 'AirAsia';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1024 AND airline = 'AirAsia';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1025 AND airline = 'Emirates';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1007 AND airline = 'Windrose Aero';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1008 AND airline = 'Windrose Aero';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1010 AND airline = 'Cathay Pacific';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1011 AND airline = 'Cathay Pacific';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1012 AND airline = 'Austrian Airlines';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1021 AND airline = 'Windrose Aero';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1034 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1028 AND airline = 'Austrian Airlines';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1029 AND airline = 'Turkish Airlines';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1030 AND airline = 'Air France';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1031 AND airline = 'Air France';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1032 AND airline = 'Air France';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1033 AND airline = 'Air France';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1027 AND airline = 'Emirates';</t>
+  </si>
+  <si>
+    <t>SELECT flightNumber FROM Airlines WHERE flightNumber = 1035 AND airline = 'Ryanair';</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 1</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 2</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 3</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 4</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 5</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 7</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 8</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 9</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 10</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 11</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 12</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 13</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 14</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 15</t>
+  </si>
+  <si>
+    <t>SELECT airport FROM Airports WHERE airportNumber = 6</t>
   </si>
 </sst>
 </file>
@@ -2821,7 +2955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2844,48 +2978,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2949,68 +3046,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3324,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,191 +3416,245 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>913</v>
-      </c>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="30" t="s">
+        <v>945</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="30" t="s">
+        <v>947</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="30" t="s">
+        <v>948</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="30" t="s">
+        <v>949</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="30" t="s">
+        <v>959</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="30" t="s">
+        <v>950</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="30" t="s">
+        <v>951</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="30" t="s">
+        <v>952</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="30" t="s">
+        <v>953</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="30" t="s">
+        <v>954</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="30" t="s">
+        <v>955</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="30" t="s">
+        <v>956</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="30" t="s">
+        <v>957</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="30" t="s">
+        <v>958</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -3562,10 +3664,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="5"/>
@@ -3578,10 +3680,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="5"/>
@@ -3594,10 +3696,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="5"/>
@@ -3610,10 +3712,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="5"/>
@@ -3626,10 +3728,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="5"/>
@@ -3642,10 +3744,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="5"/>
@@ -3658,10 +3760,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="5"/>
@@ -3674,10 +3776,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="5"/>
@@ -3690,10 +3792,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="5"/>
@@ -3706,10 +3808,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="5"/>
@@ -3722,10 +3824,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="5"/>
@@ -3738,10 +3840,10 @@
         <v>26</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="5"/>
@@ -3754,10 +3856,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="5"/>
@@ -3770,10 +3872,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="5"/>
@@ -3786,10 +3888,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="5"/>
@@ -3802,10 +3904,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="5"/>
@@ -3818,10 +3920,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="5"/>
@@ -3834,10 +3936,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="5"/>
@@ -3850,10 +3952,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="5"/>
@@ -3866,10 +3968,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="5"/>
@@ -3882,10 +3984,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="5"/>
@@ -3898,10 +4000,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="5"/>
@@ -3914,10 +4016,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="5"/>
@@ -3930,10 +4032,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="5"/>
@@ -3946,10 +4048,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="5"/>
@@ -3962,10 +4064,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="5"/>
@@ -3978,10 +4080,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="5"/>
@@ -3994,10 +4096,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="5"/>
@@ -4010,10 +4112,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="5"/>
@@ -4026,10 +4128,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="5"/>
@@ -4038,12 +4140,6 @@
       <c r="E48" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:C17"/>
-    <mergeCell ref="D3:D17"/>
-    <mergeCell ref="E3:E17"/>
-    <mergeCell ref="F3:F17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4105,10 +4201,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -4121,10 +4217,10 @@
         <v>47</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4137,10 +4233,10 @@
         <v>48</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4153,10 +4249,10 @@
         <v>49</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4169,10 +4265,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4185,10 +4281,10 @@
         <v>51</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4201,10 +4297,10 @@
         <v>52</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4217,10 +4313,10 @@
         <v>53</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4233,10 +4329,10 @@
         <v>54</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -4249,10 +4345,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4265,10 +4361,10 @@
         <v>56</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4281,10 +4377,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4297,10 +4393,10 @@
         <v>58</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -4313,10 +4409,10 @@
         <v>59</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -4329,10 +4425,10 @@
         <v>60</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -4345,10 +4441,10 @@
         <v>61</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -4361,10 +4457,10 @@
         <v>62</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -4377,10 +4473,10 @@
         <v>63</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -4393,10 +4489,10 @@
         <v>64</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -4409,10 +4505,10 @@
         <v>65</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -4425,10 +4521,10 @@
         <v>66</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -4441,10 +4537,10 @@
         <v>67</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -4457,10 +4553,10 @@
         <v>68</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -4473,10 +4569,10 @@
         <v>69</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -4489,10 +4585,10 @@
         <v>70</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -4505,10 +4601,10 @@
         <v>71</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -4521,10 +4617,10 @@
         <v>72</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -4537,10 +4633,10 @@
         <v>73</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -4553,10 +4649,10 @@
         <v>74</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -4569,10 +4665,10 @@
         <v>75</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -4585,10 +4681,10 @@
         <v>76</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4601,10 +4697,10 @@
         <v>77</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -4617,10 +4713,10 @@
         <v>79</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -4633,10 +4729,10 @@
         <v>78</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4649,10 +4745,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4662,13 +4758,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4678,13 +4774,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4694,13 +4790,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -4710,13 +4806,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4726,13 +4822,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4742,13 +4838,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4758,13 +4854,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -4774,13 +4870,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4790,13 +4886,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -4806,13 +4902,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -4822,13 +4918,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -4838,13 +4934,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -4854,13 +4950,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -4870,13 +4966,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -4886,13 +4982,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -4902,13 +4998,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -4918,13 +5014,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -4934,13 +5030,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -4950,13 +5046,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -4966,13 +5062,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -4982,13 +5078,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -4998,13 +5094,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5014,13 +5110,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -5030,13 +5126,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -5046,13 +5142,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -5062,13 +5158,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -5078,13 +5174,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -5094,13 +5190,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -5110,13 +5206,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -5126,13 +5222,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -5142,13 +5238,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -5158,13 +5254,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -5174,13 +5270,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -5190,13 +5286,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -5206,13 +5302,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -5222,13 +5318,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -5238,13 +5334,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -5254,13 +5350,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -5270,13 +5366,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -5286,13 +5382,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -5302,13 +5398,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -5318,13 +5414,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -5334,13 +5430,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -5350,13 +5446,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -5366,13 +5462,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -5382,13 +5478,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -5398,13 +5494,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -5414,13 +5510,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -5430,13 +5526,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -5446,13 +5542,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -5462,13 +5558,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -5478,13 +5574,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -5494,13 +5590,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -5510,13 +5606,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -5526,13 +5622,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -5542,13 +5638,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -5558,13 +5654,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -5574,13 +5670,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -5590,13 +5686,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -5606,13 +5702,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -5622,13 +5718,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -5638,13 +5734,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -5654,13 +5750,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -5670,13 +5766,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -5686,13 +5782,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -5702,13 +5798,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -5718,13 +5814,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -5734,13 +5830,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -5750,13 +5846,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -5766,13 +5862,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -5782,13 +5878,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -5798,13 +5894,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -5814,13 +5910,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -5830,13 +5926,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -5846,13 +5942,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -5862,13 +5958,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -5878,13 +5974,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -5894,13 +5990,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -5910,13 +6006,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -5926,13 +6022,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -5942,13 +6038,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -5958,13 +6054,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -5974,13 +6070,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -5990,13 +6086,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -6006,13 +6102,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -6022,13 +6118,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -6038,13 +6134,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -6054,13 +6150,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -6070,13 +6166,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -6086,13 +6182,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -6102,13 +6198,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -6118,13 +6214,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -6134,13 +6230,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -6150,13 +6246,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -6166,13 +6262,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -6182,13 +6278,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -6198,13 +6294,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -6214,13 +6310,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -6230,13 +6326,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -6246,13 +6342,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -6262,13 +6358,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -6278,13 +6374,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -6294,13 +6390,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -6310,13 +6406,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -6326,13 +6422,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -6342,13 +6438,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -6358,13 +6454,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -6374,13 +6470,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -6390,13 +6486,13 @@
         <v>144</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -6406,13 +6502,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -6422,13 +6518,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -6438,13 +6534,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -6454,13 +6550,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -6470,13 +6566,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -6486,13 +6582,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -6502,13 +6598,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -6518,13 +6614,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -6534,13 +6630,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -6550,13 +6646,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -6566,13 +6662,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -6582,13 +6678,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -6598,13 +6694,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -6614,13 +6710,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -6630,13 +6726,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -6646,13 +6742,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -6662,13 +6758,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -6678,13 +6774,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -6694,13 +6790,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -6710,13 +6806,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -6726,13 +6822,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -6742,13 +6838,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -6758,13 +6854,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -6774,13 +6870,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -6790,13 +6886,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -6806,13 +6902,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -6822,13 +6918,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -6838,13 +6934,13 @@
         <v>172</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -6854,13 +6950,13 @@
         <v>173</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -6870,13 +6966,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -6886,13 +6982,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -6902,13 +6998,13 @@
         <v>176</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -6918,13 +7014,13 @@
         <v>177</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -6934,13 +7030,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -6950,13 +7046,13 @@
         <v>179</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -6966,13 +7062,13 @@
         <v>180</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -6982,13 +7078,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -6998,13 +7094,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -7014,13 +7110,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -7030,13 +7126,13 @@
         <v>184</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -7046,13 +7142,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -7062,13 +7158,13 @@
         <v>186</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C188" s="23" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -7078,13 +7174,13 @@
         <v>187</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -7094,13 +7190,13 @@
         <v>188</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C190" s="23" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -7110,13 +7206,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -7126,13 +7222,13 @@
         <v>190</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -7142,13 +7238,13 @@
         <v>191</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -7158,13 +7254,13 @@
         <v>192</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -7174,13 +7270,13 @@
         <v>193</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -7190,13 +7286,13 @@
         <v>194</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -7206,13 +7302,13 @@
         <v>195</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -7222,13 +7318,13 @@
         <v>196</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -7238,13 +7334,13 @@
         <v>197</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -7254,13 +7350,13 @@
         <v>198</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -7270,13 +7366,13 @@
         <v>199</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
@@ -7286,13 +7382,13 @@
         <v>200</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
@@ -7302,13 +7398,13 @@
         <v>201</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C203" s="23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -7318,13 +7414,13 @@
         <v>202</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C204" s="23" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -7334,13 +7430,13 @@
         <v>203</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
@@ -7350,13 +7446,13 @@
         <v>204</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -7366,13 +7462,13 @@
         <v>205</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C207" s="23" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -7382,13 +7478,13 @@
         <v>206</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
@@ -7398,13 +7494,13 @@
         <v>207</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C209" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
@@ -7414,13 +7510,13 @@
         <v>208</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C210" s="23" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -7430,13 +7526,13 @@
         <v>209</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C211" s="23" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
@@ -7446,13 +7542,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
@@ -7518,8 +7614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C37"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7562,442 +7658,578 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>914</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>761</v>
-      </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="23" t="s">
+        <v>914</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="23" t="s">
+        <v>915</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="46"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="46"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="23" t="s">
+        <v>918</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="23" t="s">
+        <v>930</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="23" t="s">
+        <v>931</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="23" t="s">
+        <v>932</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="46"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>920</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
+        <v>921</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="23" t="s">
+        <v>922</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="46"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
+        <v>923</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="46"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="23" t="s">
+        <v>924</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="46"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="46"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="23" t="s">
+        <v>912</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="46"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="23" t="s">
+        <v>928</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="23" t="s">
+        <v>929</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="46"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="23" t="s">
+        <v>913</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="46"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="46"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="23" t="s">
+        <v>937</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="46"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="23" t="s">
+        <v>938</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="46"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="23" t="s">
+        <v>939</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="46"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="23" t="s">
+        <v>940</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="46"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="46"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="23" t="s">
+        <v>942</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="46"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="23" t="s">
+        <v>936</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="47"/>
+      <c r="C37" s="23" t="s">
+        <v>944</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="2"/>
@@ -8007,13 +8239,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="2"/>
@@ -8023,13 +8255,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="2"/>
@@ -8039,13 +8271,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="2"/>
@@ -8055,13 +8287,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="2"/>
@@ -8071,13 +8303,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="2"/>
@@ -8087,13 +8319,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="2"/>
@@ -8103,13 +8335,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="2"/>
@@ -8119,13 +8351,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="2"/>
@@ -8135,13 +8367,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="2"/>
@@ -8151,13 +8383,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="2"/>
@@ -8167,13 +8399,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="2"/>
@@ -8183,13 +8415,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="2"/>
@@ -8199,13 +8431,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="2"/>
@@ -8215,13 +8447,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="2"/>
@@ -8231,13 +8463,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="2"/>
@@ -8247,13 +8479,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="2"/>
@@ -8263,13 +8495,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="2"/>
@@ -8279,13 +8511,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="2"/>
@@ -8295,13 +8527,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="2"/>
@@ -8311,13 +8543,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="2"/>
@@ -8327,13 +8559,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="2"/>
@@ -8343,13 +8575,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="2"/>
@@ -8359,13 +8591,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="2"/>
@@ -8375,13 +8607,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="2"/>
@@ -8391,13 +8623,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="2"/>
@@ -8407,13 +8639,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="2"/>
@@ -8423,13 +8655,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="2"/>
@@ -8439,13 +8671,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="2"/>
@@ -8455,13 +8687,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="2"/>
@@ -8471,13 +8703,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="2"/>
@@ -8487,13 +8719,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="2"/>
@@ -8503,13 +8735,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="2"/>
@@ -8519,13 +8751,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="2"/>
@@ -8535,13 +8767,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="2"/>
@@ -8554,10 +8786,10 @@
         <v>84</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="2"/>
@@ -8570,10 +8802,10 @@
         <v>87</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="2"/>
@@ -8586,10 +8818,10 @@
         <v>197</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="2"/>
@@ -8602,10 +8834,10 @@
         <v>92</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="2"/>
@@ -8618,10 +8850,10 @@
         <v>95</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="2"/>
@@ -8634,10 +8866,10 @@
         <v>98</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="2"/>
@@ -8650,10 +8882,10 @@
         <v>102</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="2"/>
@@ -8666,10 +8898,10 @@
         <v>105</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="2"/>
@@ -8682,10 +8914,10 @@
         <v>108</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="2"/>
@@ -8698,10 +8930,10 @@
         <v>112</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="2"/>
@@ -8714,10 +8946,10 @@
         <v>115</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="2"/>
@@ -8730,10 +8962,10 @@
         <v>119</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="2"/>
@@ -8746,10 +8978,10 @@
         <v>123</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="2"/>
@@ -8762,10 +8994,10 @@
         <v>127</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="2"/>
@@ -8778,10 +9010,10 @@
         <v>130</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="2"/>
@@ -8794,10 +9026,10 @@
         <v>133</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="2"/>
@@ -8810,10 +9042,10 @@
         <v>136</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="2"/>
@@ -8826,10 +9058,10 @@
         <v>140</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="2"/>
@@ -8842,10 +9074,10 @@
         <v>144</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="2"/>
@@ -8858,10 +9090,10 @@
         <v>147</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="2"/>
@@ -8874,10 +9106,10 @@
         <v>150</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="2"/>
@@ -8890,10 +9122,10 @@
         <v>153</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="2"/>
@@ -8906,10 +9138,10 @@
         <v>155</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="2"/>
@@ -8922,10 +9154,10 @@
         <v>158</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" s="17"/>
       <c r="F96" s="2"/>
@@ -8938,10 +9170,10 @@
         <v>161</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="2"/>
@@ -8954,10 +9186,10 @@
         <v>164</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E98" s="17"/>
       <c r="F98" s="2"/>
@@ -8970,10 +9202,10 @@
         <v>168</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="2"/>
@@ -8986,10 +9218,10 @@
         <v>171</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E100" s="17"/>
       <c r="F100" s="2"/>
@@ -9002,10 +9234,10 @@
         <v>175</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="2"/>
@@ -9018,10 +9250,10 @@
         <v>179</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="2"/>
@@ -9034,10 +9266,10 @@
         <v>182</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="2"/>
@@ -9050,10 +9282,10 @@
         <v>185</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E104" s="17"/>
       <c r="F104" s="2"/>
@@ -9066,10 +9298,10 @@
         <v>188</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E105" s="17"/>
       <c r="F105" s="2"/>
@@ -9082,10 +9314,10 @@
         <v>191</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E106" s="17"/>
       <c r="F106" s="2"/>
@@ -9098,10 +9330,10 @@
         <v>194</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E107" s="17"/>
       <c r="F107" s="2"/>
@@ -9114,10 +9346,10 @@
         <v>85</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="2"/>
@@ -9130,10 +9362,10 @@
         <v>88</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="2"/>
@@ -9146,10 +9378,10 @@
         <v>198</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="2"/>
@@ -9162,10 +9394,10 @@
         <v>93</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="2"/>
@@ -9178,10 +9410,10 @@
         <v>96</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="2"/>
@@ -9194,10 +9426,10 @@
         <v>99</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="2"/>
@@ -9210,10 +9442,10 @@
         <v>103</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="2"/>
@@ -9226,10 +9458,10 @@
         <v>106</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="2"/>
@@ -9242,10 +9474,10 @@
         <v>109</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="2"/>
@@ -9258,10 +9490,10 @@
         <v>113</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="2"/>
@@ -9274,10 +9506,10 @@
         <v>116</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="2"/>
@@ -9290,10 +9522,10 @@
         <v>120</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="2"/>
@@ -9306,10 +9538,10 @@
         <v>124</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="2"/>
@@ -9322,10 +9554,10 @@
         <v>128</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="2"/>
@@ -9338,10 +9570,10 @@
         <v>131</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="2"/>
@@ -9354,10 +9586,10 @@
         <v>134</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="2"/>
@@ -9370,10 +9602,10 @@
         <v>137</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="2"/>
@@ -9386,10 +9618,10 @@
         <v>141</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="2"/>
@@ -9402,10 +9634,10 @@
         <v>145</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="2"/>
@@ -9418,10 +9650,10 @@
         <v>148</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="2"/>
@@ -9434,10 +9666,10 @@
         <v>151</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="2"/>
@@ -9450,10 +9682,10 @@
         <v>167</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="2"/>
@@ -9466,10 +9698,10 @@
         <v>156</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="2"/>
@@ -9482,10 +9714,10 @@
         <v>159</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="2"/>
@@ -9498,10 +9730,10 @@
         <v>162</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="2"/>
@@ -9514,10 +9746,10 @@
         <v>165</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="2"/>
@@ -9530,10 +9762,10 @@
         <v>169</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="2"/>
@@ -9546,10 +9778,10 @@
         <v>172</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="2"/>
@@ -9562,10 +9794,10 @@
         <v>176</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="2"/>
@@ -9578,10 +9810,10 @@
         <v>180</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="2"/>
@@ -9594,10 +9826,10 @@
         <v>183</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="2"/>
@@ -9610,10 +9842,10 @@
         <v>186</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="2"/>
@@ -9626,10 +9858,10 @@
         <v>189</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="2"/>
@@ -9642,10 +9874,10 @@
         <v>192</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="2"/>
@@ -9658,10 +9890,10 @@
         <v>195</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="2"/>
@@ -9674,10 +9906,10 @@
         <v>86</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="2"/>
@@ -9690,10 +9922,10 @@
         <v>89</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="2"/>
@@ -9706,10 +9938,10 @@
         <v>91</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="2"/>
@@ -9722,10 +9954,10 @@
         <v>94</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="2"/>
@@ -9738,10 +9970,10 @@
         <v>97</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="2"/>
@@ -9754,10 +9986,10 @@
         <v>100</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="2"/>
@@ -9770,10 +10002,10 @@
         <v>104</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="2"/>
@@ -9786,10 +10018,10 @@
         <v>107</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="2"/>
@@ -9802,10 +10034,10 @@
         <v>110</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="2"/>
@@ -9818,10 +10050,10 @@
         <v>114</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="2"/>
@@ -9834,10 +10066,10 @@
         <v>117</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="2"/>
@@ -9850,10 +10082,10 @@
         <v>121</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="2"/>
@@ -9866,10 +10098,10 @@
         <v>125</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="2"/>
@@ -9882,10 +10114,10 @@
         <v>129</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="2"/>
@@ -9898,10 +10130,10 @@
         <v>132</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="2"/>
@@ -9914,10 +10146,10 @@
         <v>135</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="2"/>
@@ -9930,10 +10162,10 @@
         <v>138</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="2"/>
@@ -9946,10 +10178,10 @@
         <v>142</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E160" s="24"/>
       <c r="F160" s="2"/>
@@ -9962,10 +10194,10 @@
         <v>146</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="2"/>
@@ -9978,10 +10210,10 @@
         <v>149</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="2"/>
@@ -9994,10 +10226,10 @@
         <v>152</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="2"/>
@@ -10010,10 +10242,10 @@
         <v>154</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="2"/>
@@ -10026,10 +10258,10 @@
         <v>157</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E165" s="24"/>
       <c r="F165" s="2"/>
@@ -10042,10 +10274,10 @@
         <v>160</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E166" s="24"/>
       <c r="F166" s="2"/>
@@ -10058,10 +10290,10 @@
         <v>163</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E167" s="24"/>
       <c r="F167" s="2"/>
@@ -10074,10 +10306,10 @@
         <v>166</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="2"/>
@@ -10090,10 +10322,10 @@
         <v>170</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E169" s="24"/>
       <c r="F169" s="2"/>
@@ -10106,10 +10338,10 @@
         <v>173</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E170" s="24"/>
       <c r="F170" s="2"/>
@@ -10122,10 +10354,10 @@
         <v>177</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E171" s="24"/>
       <c r="F171" s="2"/>
@@ -10138,10 +10370,10 @@
         <v>181</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E172" s="24"/>
       <c r="F172" s="2"/>
@@ -10154,10 +10386,10 @@
         <v>184</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E173" s="24"/>
       <c r="F173" s="2"/>
@@ -10170,10 +10402,10 @@
         <v>187</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E174" s="24"/>
       <c r="F174" s="2"/>
@@ -10186,10 +10418,10 @@
         <v>190</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="2"/>
@@ -10202,10 +10434,10 @@
         <v>193</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E176" s="24"/>
       <c r="F176" s="2"/>
@@ -10218,10 +10450,10 @@
         <v>196</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="2"/>
@@ -10230,12 +10462,6 @@
   <sortState ref="E3:E177">
     <sortCondition ref="E3:E177"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="C3:C37"/>
-    <mergeCell ref="D3:D37"/>
-    <mergeCell ref="E3:E37"/>
-    <mergeCell ref="F3:F37"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
+++ b/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
@@ -3958,8 +3958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4725,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8180,8 +8180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
+++ b/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1167">
   <si>
     <t>Check the airport of London</t>
   </si>
@@ -3959,7 +3959,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,7 +4005,9 @@
       <c r="D2" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>328</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">

--- a/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
+++ b/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1167">
   <si>
     <t>Check the airport of London</t>
   </si>
@@ -3959,7 +3959,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,9 +4005,7 @@
       <c r="D2" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>328</v>
-      </c>
+      <c r="E2" s="18"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">

--- a/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
+++ b/AndyTEST/Libs/SimpleScenariosChecklist_02.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -2232,1294 +2232,1294 @@
     <t>Paris</t>
   </si>
   <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 1</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 2</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 3</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 4</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 5</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 6</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 7</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 8</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 9</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 10</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 11</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 12</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 13</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 14</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airport FROM Airports WHERE airportNumber = 15</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'London';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Paris';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Sydney';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Berlin';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Munich';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'New York';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Kiev';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Budapest';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Beijing';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Prague';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Helsinki';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Ottava';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Vilnius';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Milan';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree FROM Airports WHERE airport = 'Barcelona';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'London';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Paris';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Sydney';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Berlin';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Munich';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'New York';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Kiev';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Budapest';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Beijing';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Prague';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Helsinki';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Ottava';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Vilnius';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Milan';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding FROM Airports WHERE airport = 'Barcelona';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'London' AND arrivalAirport = 'Munich';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'London' AND arrivalAirport = 'New York';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'London' AND arrivalAirport = 'Ottava';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'London' AND arrivalAirport = 'Milan';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Sydney';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Kiev';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Milan';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Barcelona';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Prague';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Helsinki';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Budapest' AND arrivalAirport = 'London';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Budapest' AND arrivalAirport = 'Kiev';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Budapest' AND arrivalAirport = 'Vilnius';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Beijing' AND arrivalAirport = 'Helsinki';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Beijing' AND arrivalAirport = 'Barcelona';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Sydney' AND arrivalAirport = 'Berlin';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Sydney' AND arrivalAirport = 'Munich';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Sydney' AND arrivalAirport = 'Milan';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Paris' AND arrivalAirport = 'Ottava';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Paris' AND arrivalAirport = 'Vilnius';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Paris' AND arrivalAirport = 'Helsinki';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Paris' AND arrivalAirport = 'New York';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Kiev' AND arrivalAirport = 'New York';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Kiev' AND arrivalAirport = 'Milan';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Munich' AND arrivalAirport = 'London';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Ottava' AND arrivalAirport = 'Vilnius';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Ottava' AND arrivalAirport = 'Milan';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Ottava' AND arrivalAirport = 'Barcelona';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Berlin' AND arrivalAirport = 'Kiev';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Prague' AND arrivalAirport = 'Helsinki';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Barcelona' AND arrivalAirport = 'Ottava';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Helsinki' AND arrivalAirport = 'Budapest';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Milan' AND arrivalAirport = 'Beijing';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Milan' AND arrivalAirport = 'Sydney';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Flights WHERE departureAirport = 'Vilnius' AND arrivalAirport = 'Munich';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1001;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1002;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1003;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1004;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1005;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1006;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1007;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1008;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1009;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1010;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1011;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1012;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1013;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1014;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1015;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1016;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1017;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1018;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1019;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1020;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1021;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1022;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1023;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1024;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1025;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1026;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1027;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1028;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1029;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1030;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1031;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1032;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1033;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1034;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport FROM Flights WHERE flightNumber = 1035;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1001;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1002;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1003;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1004;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1005;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1006;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1007;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1008;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1009;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1010;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1011;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1012;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1013;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1014;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1015;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1016;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1017;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1018;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1019;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1020;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1021;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1022;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1023;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1024;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1025;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1026;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1027;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1028;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1029;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1030;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1031;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1032;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1033;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1034;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT arrivalAirport FROM Flights WHERE flightNumber = 1035;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1001;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1002;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1003;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1004;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1005;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1006;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1007;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1008;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1009;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1010;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1011;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1012;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1013;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1014;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1015;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1016;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1017;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1018;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1019;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1020;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1021;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1022;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1023;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1024;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1025;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1026;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1027;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1028;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1029;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1030;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1031;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1032;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1033;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1034;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT stopsNumber FROM Flights WHERE flightNumber = 1035;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1001;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1002;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1003;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1004;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1005;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1006;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1007;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1008;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1009;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1010;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1011;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1012;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1013;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1014;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1015;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1016;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1017;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1018;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1019;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1020;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1021;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1022;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1023;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1024;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1025;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1026;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1027;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1028;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1029;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1030;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1031;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1032;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1033;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1034;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1035;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1001;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1002;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1003;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1004;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1005;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1006;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1007;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1008;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1009;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1010;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1011;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1012;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1013;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1014;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1015;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1016;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1017;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1018;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1019;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1020;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1021;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1022;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1023;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1024;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1025;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1026;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1027;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1028;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1029;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1030;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1031;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1032;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1033;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1034;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT availableSeats FROM Flights WHERE flightNumber = 1035;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE  flightNumber = 1001 AND  airline = 'WizzAir';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1002 AND airline = 'WizzAir';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1003 AND airline = 'Lufthansa';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1004 AND airline = 'Lufthansa';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1005 AND airline = 'Lufthansa';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1006 AND airline = 'Lufthansa';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1007 AND airline = 'Windrose Aero';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1008 AND airline = 'Windrose Aero';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1009 AND airline = 'WizzAir';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1010 AND airline = 'Cathay Pacific';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1011 AND airline = 'Cathay Pacific';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1012 AND airline = 'Austrian Airlines';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1013 AND airline = 'AirAsia';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1014 AND airline = 'Virgin';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1015 AND airline = 'Virgin';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1016 AND airline = 'Virgin';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1017 AND airline = 'AirAsia';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1018 AND airline = 'Emirates';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1019 AND airline = 'Ryanair';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1020 AND airline = 'AirAsia';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1021 AND airline = 'Windrose Aero';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1022 AND airline = 'WizzAir';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1023 AND airline = 'AirAsia';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1024 AND airline = 'AirAsia';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1025 AND airline = 'Emirates';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1026 AND airline = 'WizzAir';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1027 AND airline = 'Emirates';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1028 AND airline = 'Austrian Airlines';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1029 AND airline = 'Turkish Airlines';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1030 AND airline = 'Air France';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1031 AND airline = 'Air France';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1032 AND airline = 'Air France';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1033 AND airline = 'Air France';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1034 AND airline = 'WizzAir';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT flightNumber FROM Airlines WHERE flightNumber = 1035 AND airline = 'Ryanair';</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1001;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1002;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1004;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1005;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1006;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1007;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1008;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1009;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1010;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1011;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1012;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1013;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1014;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1015;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1016;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1017;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1018;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1019;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1020;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1021;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1022;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1023;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1024;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1025;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1026;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1027;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1028;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1029;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1030;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1031;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1032;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1033;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1034;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT airline FROM Airlines WHERE flightNumber = 1035;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1001;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1002;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1004;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1005;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1006;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1007;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1008;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1009;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1010;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1011;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1012;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1013;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1014;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1015;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1016;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1017;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1018;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1019;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1020;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1021;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1022;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1023;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1024;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1025;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1026;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1027;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1028;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1029;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1030;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1031;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1032;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1033;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1034;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1035;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1001;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1002;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1004;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1005;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1006;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1007;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1008;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1009;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1010;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1011;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1012;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1013;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1014;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1015;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1016;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1017;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1018;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1019;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1020;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1021;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1022;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1023;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1024;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1025;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1026;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1027;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1028;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1029;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1030;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1031;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1032;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1033;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1034;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT webRegistration FROM Airlines WHERE flightNumber = 1035;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1001;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1002;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1004;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1005;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1006;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1007;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1008;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1009;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1010;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1011;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1012;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1013;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1014;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1015;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1016;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1017;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1018;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1019;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1020;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1021;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1022;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1023;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1024;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1025;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1026;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1027;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1028;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1029;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1030;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1031;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1032;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1033;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1034;</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT isMealincluded FROM Airlines WHERE flightNumber = 1035;</t>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airport FROM Airports WHERE airportNumber = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'London';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Paris';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Sydney';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Berlin';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Munich';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'New York';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Kiev';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Budapest';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Beijing';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Prague';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Helsinki';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Ottava';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Vilnius';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Milan';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree FROM Airports WHERE airport = 'Barcelona';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'London';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Paris';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Sydney';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Berlin';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Munich';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'New York';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Kiev';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Budapest';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Beijing';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Prague';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Helsinki';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Ottava';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Vilnius';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Milan';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding FROM Airports WHERE airport = 'Barcelona';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'London' AND arrivalAirport = 'Munich';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'London' AND arrivalAirport = 'New York';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'London' AND arrivalAirport = 'Ottava';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'London' AND arrivalAirport = 'Milan';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Sydney';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Kiev';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Milan';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Barcelona';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Prague';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'New York' AND arrivalAirport = 'Helsinki';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Budapest' AND arrivalAirport = 'London';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Budapest' AND arrivalAirport = 'Kiev';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Budapest' AND arrivalAirport = 'Vilnius';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Beijing' AND arrivalAirport = 'Helsinki';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Beijing' AND arrivalAirport = 'Barcelona';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Sydney' AND arrivalAirport = 'Berlin';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Sydney' AND arrivalAirport = 'Munich';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Sydney' AND arrivalAirport = 'Milan';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Paris' AND arrivalAirport = 'Ottava';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Paris' AND arrivalAirport = 'Vilnius';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Paris' AND arrivalAirport = 'Helsinki';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Paris' AND arrivalAirport = 'New York';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Kiev' AND arrivalAirport = 'New York';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Kiev' AND arrivalAirport = 'Milan';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Munich' AND arrivalAirport = 'London';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Ottava' AND arrivalAirport = 'Vilnius';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Ottava' AND arrivalAirport = 'Milan';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Ottava' AND arrivalAirport = 'Barcelona';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Berlin' AND arrivalAirport = 'Kiev';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Prague' AND arrivalAirport = 'Helsinki';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Barcelona' AND arrivalAirport = 'Ottava';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Helsinki' AND arrivalAirport = 'Budapest';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Milan' AND arrivalAirport = 'Beijing';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Milan' AND arrivalAirport = 'Sydney';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Flights WHERE departureAirport = 'Vilnius' AND arrivalAirport = 'Munich';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1001;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1002;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1003;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1004;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1005;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1006;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1007;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1008;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1009;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1010;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1011;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1012;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1013;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1014;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1015;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1016;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1017;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1018;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1019;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1020;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1021;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1022;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1023;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1024;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1025;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1026;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1027;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1028;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1029;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1030;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1031;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1032;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1033;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1034;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport FROM Flights WHERE flightNumber = 1035;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1001;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1002;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1003;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1004;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1005;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1006;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1007;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1008;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1009;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1010;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1011;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1012;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1013;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1014;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1015;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1016;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1017;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1018;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1019;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1020;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1021;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1022;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1023;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1024;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1025;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1026;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1027;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1028;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1029;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1030;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1031;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1032;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1033;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1034;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT arrivalAirport FROM Flights WHERE flightNumber = 1035;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1001;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1002;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1003;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1004;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1005;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1006;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1007;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1008;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1009;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1010;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1011;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1012;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1013;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1014;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1015;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1016;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1017;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1018;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1019;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1020;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1021;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1022;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1023;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1024;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1025;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1026;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1027;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1028;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1029;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1030;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1031;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1032;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1033;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1034;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT stopsNumber FROM Flights WHERE flightNumber = 1035;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1001;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1002;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1003;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1004;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1005;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1006;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1007;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1008;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1009;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1010;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1011;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1012;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1013;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1014;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1015;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1016;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1017;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1018;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1019;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1020;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1021;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1022;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1023;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1024;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1025;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1026;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1027;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1028;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1029;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1030;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1031;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1032;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1033;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1034;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT averageTicketPrice FROM Flights WHERE flightNumber = 1035;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1001;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1002;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1003;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1004;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1005;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1006;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1007;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1008;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1009;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1010;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1011;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1012;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1013;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1014;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1015;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1016;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1017;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1018;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1019;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1020;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1021;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1022;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1023;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1024;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1025;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1026;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1027;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1028;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1029;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1030;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1031;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1032;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1033;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1034;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT availableSeats FROM Flights WHERE flightNumber = 1035;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE  flightNumber = 1001 AND  airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1002 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1003 AND airline = 'Lufthansa';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1004 AND airline = 'Lufthansa';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1005 AND airline = 'Lufthansa';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1006 AND airline = 'Lufthansa';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1007 AND airline = 'Windrose Aero';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1008 AND airline = 'Windrose Aero';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1009 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1010 AND airline = 'Cathay Pacific';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1011 AND airline = 'Cathay Pacific';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1012 AND airline = 'Austrian Airlines';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1013 AND airline = 'AirAsia';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1014 AND airline = 'Virgin';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1015 AND airline = 'Virgin';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1016 AND airline = 'Virgin';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1017 AND airline = 'AirAsia';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1018 AND airline = 'Emirates';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1019 AND airline = 'Ryanair';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1020 AND airline = 'AirAsia';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1021 AND airline = 'Windrose Aero';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1022 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1023 AND airline = 'AirAsia';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1024 AND airline = 'AirAsia';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1025 AND airline = 'Emirates';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1026 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1027 AND airline = 'Emirates';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1028 AND airline = 'Austrian Airlines';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1029 AND airline = 'Turkish Airlines';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1030 AND airline = 'Air France';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1031 AND airline = 'Air France';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1032 AND airline = 'Air France';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1033 AND airline = 'Air France';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1034 AND airline = 'WizzAir';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT flightNumber FROM Airlines WHERE flightNumber = 1035 AND airline = 'Ryanair';</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1001;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1002;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1004;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1005;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1006;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1007;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1008;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1009;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1010;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1011;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1012;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1013;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1014;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1015;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1016;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1017;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1018;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1019;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1020;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1021;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1022;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1023;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1024;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1025;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1026;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1027;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1028;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1029;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1030;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1031;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1032;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1033;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1034;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT airline FROM Airlines WHERE flightNumber = 1035;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1001;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1002;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1004;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1005;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1006;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1007;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1008;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1009;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1010;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1011;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1012;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1013;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1014;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1015;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1016;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1017;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1018;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1019;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1020;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1021;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1022;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1023;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1024;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1025;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1026;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1027;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1028;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1029;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1030;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1031;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1032;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1033;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1034;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT additionalSpaceService FROM Airlines WHERE flightNumber = 1035;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1001;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1002;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1004;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1005;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1006;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1007;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1008;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1009;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1010;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1011;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1012;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1013;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1014;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1015;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1016;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1017;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1018;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1019;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1020;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1021;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1022;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1023;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1024;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1025;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1026;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1027;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1028;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1029;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1030;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1031;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1032;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1033;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1034;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT webRegistration FROM Airlines WHERE flightNumber = 1035;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1001;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1002;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1004;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1005;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1006;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1007;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1008;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1009;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1010;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1011;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1012;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1013;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1014;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1015;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1016;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1017;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1018;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1019;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1020;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1021;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1022;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1023;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1024;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1025;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1026;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1027;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1028;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1029;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1030;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1031;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1032;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1033;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1034;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT isMealincluded FROM Airlines WHERE flightNumber = 1035;</t>
   </si>
 </sst>
 </file>
@@ -9309,7 +9309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9344,7 +9344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9561,12 +9561,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="57.375" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.375" style="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.625" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.875" style="8" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.625" style="8" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="57.42578125" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" style="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" style="8" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5703125" style="8" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9605,7 +9605,7 @@
       <c r="E2" s="404"/>
       <c r="F2" s="406"/>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>523</v>
       </c>
@@ -9621,7 +9621,7 @@
       <c r="E3" s="404"/>
       <c r="F3" s="407"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>524</v>
       </c>
@@ -9637,7 +9637,7 @@
       <c r="E4" s="404"/>
       <c r="F4" s="408"/>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>525</v>
       </c>
@@ -9653,7 +9653,7 @@
       <c r="E5" s="404"/>
       <c r="F5" s="409"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>526</v>
       </c>
@@ -9669,7 +9669,7 @@
       <c r="E6" s="404"/>
       <c r="F6" s="410"/>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>527</v>
       </c>
@@ -9685,7 +9685,7 @@
       <c r="E7" s="404"/>
       <c r="F7" s="411"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>528</v>
       </c>
@@ -9701,7 +9701,7 @@
       <c r="E8" s="404"/>
       <c r="F8" s="412"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>529</v>
       </c>
@@ -9717,7 +9717,7 @@
       <c r="E9" s="404"/>
       <c r="F9" s="413"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>530</v>
       </c>
@@ -9733,7 +9733,7 @@
       <c r="E10" s="404"/>
       <c r="F10" s="414"/>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>531</v>
       </c>
@@ -9749,7 +9749,7 @@
       <c r="E11" s="404"/>
       <c r="F11" s="415"/>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>532</v>
       </c>
@@ -9765,7 +9765,7 @@
       <c r="E12" s="404"/>
       <c r="F12" s="416"/>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>533</v>
       </c>
@@ -9781,7 +9781,7 @@
       <c r="E13" s="404"/>
       <c r="F13" s="417"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>534</v>
       </c>
@@ -9797,7 +9797,7 @@
       <c r="E14" s="404"/>
       <c r="F14" s="418"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>535</v>
       </c>
@@ -9813,7 +9813,7 @@
       <c r="E15" s="404"/>
       <c r="F15" s="419"/>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>536</v>
       </c>
@@ -9829,7 +9829,7 @@
       <c r="E16" s="404"/>
       <c r="F16" s="420"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>537</v>
       </c>
@@ -9845,7 +9845,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="421"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>538</v>
       </c>
@@ -9861,7 +9861,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="422"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>539</v>
       </c>
@@ -9877,7 +9877,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="423"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>540</v>
       </c>
@@ -9893,7 +9893,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="424"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>541</v>
       </c>
@@ -9925,7 +9925,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="426"/>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>543</v>
       </c>
@@ -9941,7 +9941,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="427"/>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>544</v>
       </c>
@@ -9957,7 +9957,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="428"/>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>545</v>
       </c>
@@ -9973,7 +9973,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="429"/>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>546</v>
       </c>
@@ -9989,7 +9989,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="430"/>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>547</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="431"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>548</v>
       </c>
@@ -10021,7 +10021,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="432"/>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>549</v>
       </c>
@@ -10037,7 +10037,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="433"/>
     </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>550</v>
       </c>
@@ -10323,17 +10323,17 @@
   <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.25" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.375" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.75" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" style="7" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18" style="7" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" style="7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -10356,7 +10356,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>522</v>
       </c>
@@ -10372,7 +10372,7 @@
       <c r="E2" s="193"/>
       <c r="F2" s="194"/>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>523</v>
       </c>
@@ -10388,7 +10388,7 @@
       <c r="E3" s="193"/>
       <c r="F3" s="195"/>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>524</v>
       </c>
@@ -10404,7 +10404,7 @@
       <c r="E4" s="193"/>
       <c r="F4" s="196"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>525</v>
       </c>
@@ -10420,7 +10420,7 @@
       <c r="E5" s="193"/>
       <c r="F5" s="197"/>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>526</v>
       </c>
@@ -10436,7 +10436,7 @@
       <c r="E6" s="193"/>
       <c r="F6" s="198"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>527</v>
       </c>
@@ -10452,7 +10452,7 @@
       <c r="E7" s="193"/>
       <c r="F7" s="199"/>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>528</v>
       </c>
@@ -10468,7 +10468,7 @@
       <c r="E8" s="193"/>
       <c r="F8" s="200"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>529</v>
       </c>
@@ -10484,7 +10484,7 @@
       <c r="E9" s="193"/>
       <c r="F9" s="201"/>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>530</v>
       </c>
@@ -10500,7 +10500,7 @@
       <c r="E10" s="193"/>
       <c r="F10" s="202"/>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>531</v>
       </c>
@@ -10516,7 +10516,7 @@
       <c r="E11" s="193"/>
       <c r="F11" s="203"/>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>532</v>
       </c>
@@ -10532,7 +10532,7 @@
       <c r="E12" s="193"/>
       <c r="F12" s="204"/>
     </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>533</v>
       </c>
@@ -10548,7 +10548,7 @@
       <c r="E13" s="193"/>
       <c r="F13" s="205"/>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>534</v>
       </c>
@@ -10564,7 +10564,7 @@
       <c r="E14" s="193"/>
       <c r="F14" s="206"/>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>535</v>
       </c>
@@ -10580,7 +10580,7 @@
       <c r="E15" s="193"/>
       <c r="F15" s="207"/>
     </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>536</v>
       </c>
@@ -10596,7 +10596,7 @@
       <c r="E16" s="193"/>
       <c r="F16" s="208"/>
     </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>537</v>
       </c>
@@ -10612,7 +10612,7 @@
       <c r="E17" s="193"/>
       <c r="F17" s="209"/>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>538</v>
       </c>
@@ -10628,7 +10628,7 @@
       <c r="E18" s="193"/>
       <c r="F18" s="210"/>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>539</v>
       </c>
@@ -10644,7 +10644,7 @@
       <c r="E19" s="193"/>
       <c r="F19" s="211"/>
     </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>540</v>
       </c>
@@ -10660,7 +10660,7 @@
       <c r="E20" s="193"/>
       <c r="F20" s="212"/>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>541</v>
       </c>
@@ -10676,7 +10676,7 @@
       <c r="E21" s="193"/>
       <c r="F21" s="213"/>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>542</v>
       </c>
@@ -10692,7 +10692,7 @@
       <c r="E22" s="193"/>
       <c r="F22" s="214"/>
     </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>543</v>
       </c>
@@ -10708,7 +10708,7 @@
       <c r="E23" s="193"/>
       <c r="F23" s="215"/>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>544</v>
       </c>
@@ -10724,7 +10724,7 @@
       <c r="E24" s="193"/>
       <c r="F24" s="216"/>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>545</v>
       </c>
@@ -10740,7 +10740,7 @@
       <c r="E25" s="193"/>
       <c r="F25" s="217"/>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>546</v>
       </c>
@@ -10756,7 +10756,7 @@
       <c r="E26" s="193"/>
       <c r="F26" s="218"/>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>547</v>
       </c>
@@ -10772,7 +10772,7 @@
       <c r="E27" s="193"/>
       <c r="F27" s="219"/>
     </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>548</v>
       </c>
@@ -10788,7 +10788,7 @@
       <c r="E28" s="193"/>
       <c r="F28" s="220"/>
     </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>549</v>
       </c>
@@ -10804,7 +10804,7 @@
       <c r="E29" s="193"/>
       <c r="F29" s="221"/>
     </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>550</v>
       </c>
@@ -10820,7 +10820,7 @@
       <c r="E30" s="193"/>
       <c r="F30" s="222"/>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>551</v>
       </c>
@@ -10836,7 +10836,7 @@
       <c r="E31" s="193"/>
       <c r="F31" s="223"/>
     </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>552</v>
       </c>
@@ -10852,7 +10852,7 @@
       <c r="E32" s="193"/>
       <c r="F32" s="224"/>
     </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>553</v>
       </c>
@@ -10868,7 +10868,7 @@
       <c r="E33" s="193"/>
       <c r="F33" s="225"/>
     </row>
-    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>554</v>
       </c>
@@ -10884,7 +10884,7 @@
       <c r="E34" s="193"/>
       <c r="F34" s="226"/>
     </row>
-    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>555</v>
       </c>
@@ -10900,7 +10900,7 @@
       <c r="E35" s="193"/>
       <c r="F35" s="227"/>
     </row>
-    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>556</v>
       </c>
@@ -10916,7 +10916,7 @@
       <c r="E36" s="193"/>
       <c r="F36" s="228"/>
     </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>557</v>
       </c>
@@ -10932,7 +10932,7 @@
       <c r="E37" s="193"/>
       <c r="F37" s="229"/>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>558</v>
       </c>
@@ -10948,7 +10948,7 @@
       <c r="E38" s="193"/>
       <c r="F38" s="230"/>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>559</v>
       </c>
@@ -10964,7 +10964,7 @@
       <c r="E39" s="193"/>
       <c r="F39" s="231"/>
     </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>560</v>
       </c>
@@ -10980,7 +10980,7 @@
       <c r="E40" s="193"/>
       <c r="F40" s="232"/>
     </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>561</v>
       </c>
@@ -10996,7 +10996,7 @@
       <c r="E41" s="193"/>
       <c r="F41" s="233"/>
     </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>562</v>
       </c>
@@ -11012,7 +11012,7 @@
       <c r="E42" s="193"/>
       <c r="F42" s="234"/>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>563</v>
       </c>
@@ -11028,7 +11028,7 @@
       <c r="E43" s="193"/>
       <c r="F43" s="235"/>
     </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>564</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="E44" s="193"/>
       <c r="F44" s="236"/>
     </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>565</v>
       </c>
@@ -11060,7 +11060,7 @@
       <c r="E45" s="193"/>
       <c r="F45" s="237"/>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>566</v>
       </c>
@@ -11076,7 +11076,7 @@
       <c r="E46" s="193"/>
       <c r="F46" s="238"/>
     </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>567</v>
       </c>
@@ -11092,7 +11092,7 @@
       <c r="E47" s="193"/>
       <c r="F47" s="239"/>
     </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>568</v>
       </c>
@@ -11108,7 +11108,7 @@
       <c r="E48" s="193"/>
       <c r="F48" s="240"/>
     </row>
-    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>569</v>
       </c>
@@ -11124,7 +11124,7 @@
       <c r="E49" s="193"/>
       <c r="F49" s="241"/>
     </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>570</v>
       </c>
@@ -11140,7 +11140,7 @@
       <c r="E50" s="193"/>
       <c r="F50" s="242"/>
     </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>571</v>
       </c>
@@ -11156,7 +11156,7 @@
       <c r="E51" s="193"/>
       <c r="F51" s="243"/>
     </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>572</v>
       </c>
@@ -11172,7 +11172,7 @@
       <c r="E52" s="193"/>
       <c r="F52" s="244"/>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>573</v>
       </c>
@@ -11188,7 +11188,7 @@
       <c r="E53" s="193"/>
       <c r="F53" s="245"/>
     </row>
-    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>574</v>
       </c>
@@ -11204,7 +11204,7 @@
       <c r="E54" s="193"/>
       <c r="F54" s="246"/>
     </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>575</v>
       </c>
@@ -11220,7 +11220,7 @@
       <c r="E55" s="193"/>
       <c r="F55" s="247"/>
     </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>576</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="E56" s="193"/>
       <c r="F56" s="248"/>
     </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>577</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="E57" s="193"/>
       <c r="F57" s="249"/>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>578</v>
       </c>
@@ -11268,7 +11268,7 @@
       <c r="E58" s="193"/>
       <c r="F58" s="250"/>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>579</v>
       </c>
@@ -11284,7 +11284,7 @@
       <c r="E59" s="193"/>
       <c r="F59" s="251"/>
     </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>580</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="E60" s="193"/>
       <c r="F60" s="252"/>
     </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>581</v>
       </c>
@@ -11316,7 +11316,7 @@
       <c r="E61" s="193"/>
       <c r="F61" s="253"/>
     </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>582</v>
       </c>
@@ -11332,7 +11332,7 @@
       <c r="E62" s="193"/>
       <c r="F62" s="254"/>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>583</v>
       </c>
@@ -11348,7 +11348,7 @@
       <c r="E63" s="193"/>
       <c r="F63" s="255"/>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>584</v>
       </c>
@@ -11364,7 +11364,7 @@
       <c r="E64" s="193"/>
       <c r="F64" s="256"/>
     </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>585</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="E65" s="193"/>
       <c r="F65" s="257"/>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>586</v>
       </c>
@@ -11396,7 +11396,7 @@
       <c r="E66" s="193"/>
       <c r="F66" s="258"/>
     </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>587</v>
       </c>
@@ -11412,7 +11412,7 @@
       <c r="E67" s="193"/>
       <c r="F67" s="259"/>
     </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>588</v>
       </c>
@@ -11428,7 +11428,7 @@
       <c r="E68" s="193"/>
       <c r="F68" s="260"/>
     </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>589</v>
       </c>
@@ -11444,7 +11444,7 @@
       <c r="E69" s="193"/>
       <c r="F69" s="261"/>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>590</v>
       </c>
@@ -11460,7 +11460,7 @@
       <c r="E70" s="193"/>
       <c r="F70" s="262"/>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>591</v>
       </c>
@@ -12596,7 +12596,7 @@
       <c r="E141" s="193"/>
       <c r="F141" s="333"/>
     </row>
-    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>662</v>
       </c>
@@ -12612,7 +12612,7 @@
       <c r="E142" s="193"/>
       <c r="F142" s="334"/>
     </row>
-    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>663</v>
       </c>
@@ -12628,7 +12628,7 @@
       <c r="E143" s="193"/>
       <c r="F143" s="335"/>
     </row>
-    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>664</v>
       </c>
@@ -12644,7 +12644,7 @@
       <c r="E144" s="193"/>
       <c r="F144" s="336"/>
     </row>
-    <row r="145" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>665</v>
       </c>
@@ -12660,7 +12660,7 @@
       <c r="E145" s="193"/>
       <c r="F145" s="337"/>
     </row>
-    <row r="146" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>666</v>
       </c>
@@ -12676,7 +12676,7 @@
       <c r="E146" s="193"/>
       <c r="F146" s="338"/>
     </row>
-    <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>667</v>
       </c>
@@ -12692,7 +12692,7 @@
       <c r="E147" s="193"/>
       <c r="F147" s="339"/>
     </row>
-    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>668</v>
       </c>
@@ -12708,7 +12708,7 @@
       <c r="E148" s="193"/>
       <c r="F148" s="340"/>
     </row>
-    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>669</v>
       </c>
@@ -12724,7 +12724,7 @@
       <c r="E149" s="193"/>
       <c r="F149" s="341"/>
     </row>
-    <row r="150" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>670</v>
       </c>
@@ -12740,7 +12740,7 @@
       <c r="E150" s="193"/>
       <c r="F150" s="342"/>
     </row>
-    <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>671</v>
       </c>
@@ -12756,7 +12756,7 @@
       <c r="E151" s="193"/>
       <c r="F151" s="343"/>
     </row>
-    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>672</v>
       </c>
@@ -12772,7 +12772,7 @@
       <c r="E152" s="193"/>
       <c r="F152" s="344"/>
     </row>
-    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>673</v>
       </c>
@@ -12788,7 +12788,7 @@
       <c r="E153" s="193"/>
       <c r="F153" s="345"/>
     </row>
-    <row r="154" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>674</v>
       </c>
@@ -12804,7 +12804,7 @@
       <c r="E154" s="193"/>
       <c r="F154" s="346"/>
     </row>
-    <row r="155" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>675</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="E155" s="193"/>
       <c r="F155" s="347"/>
     </row>
-    <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>676</v>
       </c>
@@ -12836,7 +12836,7 @@
       <c r="E156" s="193"/>
       <c r="F156" s="348"/>
     </row>
-    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>677</v>
       </c>
@@ -12852,7 +12852,7 @@
       <c r="E157" s="193"/>
       <c r="F157" s="349"/>
     </row>
-    <row r="158" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>678</v>
       </c>
@@ -12868,7 +12868,7 @@
       <c r="E158" s="193"/>
       <c r="F158" s="350"/>
     </row>
-    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>679</v>
       </c>
@@ -12884,7 +12884,7 @@
       <c r="E159" s="193"/>
       <c r="F159" s="351"/>
     </row>
-    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>680</v>
       </c>
@@ -12900,7 +12900,7 @@
       <c r="E160" s="193"/>
       <c r="F160" s="352"/>
     </row>
-    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>681</v>
       </c>
@@ -12916,7 +12916,7 @@
       <c r="E161" s="193"/>
       <c r="F161" s="353"/>
     </row>
-    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>682</v>
       </c>
@@ -12932,7 +12932,7 @@
       <c r="E162" s="193"/>
       <c r="F162" s="354"/>
     </row>
-    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>683</v>
       </c>
@@ -12948,7 +12948,7 @@
       <c r="E163" s="193"/>
       <c r="F163" s="355"/>
     </row>
-    <row r="164" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>684</v>
       </c>
@@ -12964,7 +12964,7 @@
       <c r="E164" s="193"/>
       <c r="F164" s="356"/>
     </row>
-    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>685</v>
       </c>
@@ -12980,7 +12980,7 @@
       <c r="E165" s="193"/>
       <c r="F165" s="357"/>
     </row>
-    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>686</v>
       </c>
@@ -12996,7 +12996,7 @@
       <c r="E166" s="193"/>
       <c r="F166" s="358"/>
     </row>
-    <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>687</v>
       </c>
@@ -13012,7 +13012,7 @@
       <c r="E167" s="193"/>
       <c r="F167" s="359"/>
     </row>
-    <row r="168" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>688</v>
       </c>
@@ -13028,7 +13028,7 @@
       <c r="E168" s="193"/>
       <c r="F168" s="360"/>
     </row>
-    <row r="169" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>689</v>
       </c>
@@ -13044,7 +13044,7 @@
       <c r="E169" s="193"/>
       <c r="F169" s="361"/>
     </row>
-    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>690</v>
       </c>
@@ -13060,7 +13060,7 @@
       <c r="E170" s="193"/>
       <c r="F170" s="362"/>
     </row>
-    <row r="171" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>691</v>
       </c>
@@ -13076,7 +13076,7 @@
       <c r="E171" s="193"/>
       <c r="F171" s="363"/>
     </row>
-    <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>692</v>
       </c>
@@ -13092,7 +13092,7 @@
       <c r="E172" s="193"/>
       <c r="F172" s="364"/>
     </row>
-    <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>693</v>
       </c>
@@ -13108,7 +13108,7 @@
       <c r="E173" s="193"/>
       <c r="F173" s="365"/>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>694</v>
       </c>
@@ -13124,7 +13124,7 @@
       <c r="E174" s="193"/>
       <c r="F174" s="366"/>
     </row>
-    <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>695</v>
       </c>
@@ -13140,7 +13140,7 @@
       <c r="E175" s="193"/>
       <c r="F175" s="367"/>
     </row>
-    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>696</v>
       </c>
@@ -13778,17 +13778,17 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="55" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.25" style="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.625" style="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.375" style="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" style="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" style="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" style="7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13827,7 +13827,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>523</v>
       </c>
@@ -13843,7 +13843,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>524</v>
       </c>
@@ -13859,7 +13859,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>525</v>
       </c>
@@ -13875,7 +13875,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>526</v>
       </c>
@@ -13891,7 +13891,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>527</v>
       </c>
@@ -13907,7 +13907,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>528</v>
       </c>
@@ -13923,7 +13923,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>529</v>
       </c>
@@ -13939,7 +13939,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>530</v>
       </c>
@@ -13955,7 +13955,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>531</v>
       </c>
@@ -13971,7 +13971,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>532</v>
       </c>
@@ -13987,7 +13987,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>533</v>
       </c>
@@ -14003,7 +14003,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>534</v>
       </c>
@@ -14019,7 +14019,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>535</v>
       </c>
@@ -14035,7 +14035,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>536</v>
       </c>
@@ -14051,7 +14051,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="29"/>
     </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>537</v>
       </c>
@@ -14067,7 +14067,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>538</v>
       </c>
@@ -14083,7 +14083,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>539</v>
       </c>
@@ -14099,7 +14099,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>540</v>
       </c>
@@ -14115,7 +14115,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="33"/>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>541</v>
       </c>
@@ -14131,7 +14131,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>542</v>
       </c>
@@ -14147,7 +14147,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="35"/>
     </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>543</v>
       </c>
@@ -14163,7 +14163,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="36"/>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>544</v>
       </c>
@@ -14179,7 +14179,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="37"/>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>545</v>
       </c>
@@ -14195,7 +14195,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>546</v>
       </c>
@@ -14211,7 +14211,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="39"/>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>547</v>
       </c>
@@ -14227,7 +14227,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="40"/>
     </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>548</v>
       </c>
@@ -14243,7 +14243,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="41"/>
     </row>
-    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>549</v>
       </c>
@@ -14259,7 +14259,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="42"/>
     </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>550</v>
       </c>
@@ -14275,7 +14275,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="43"/>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>551</v>
       </c>
@@ -14291,7 +14291,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="44"/>
     </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>552</v>
       </c>
@@ -14307,7 +14307,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="45"/>
     </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>553</v>
       </c>
@@ -14323,7 +14323,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="46"/>
     </row>
-    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>554</v>
       </c>
@@ -14339,7 +14339,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="47"/>
     </row>
-    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>555</v>
       </c>
@@ -14355,7 +14355,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="48"/>
     </row>
-    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>556</v>
       </c>
@@ -16051,7 +16051,7 @@
       <c r="E141" s="12"/>
       <c r="F141" s="154"/>
     </row>
-    <row r="142" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>662</v>
       </c>
@@ -16067,7 +16067,7 @@
       <c r="E142" s="12"/>
       <c r="F142" s="155"/>
     </row>
-    <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>663</v>
       </c>
@@ -16083,7 +16083,7 @@
       <c r="E143" s="12"/>
       <c r="F143" s="156"/>
     </row>
-    <row r="144" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>664</v>
       </c>
@@ -16099,7 +16099,7 @@
       <c r="E144" s="12"/>
       <c r="F144" s="157"/>
     </row>
-    <row r="145" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>665</v>
       </c>
@@ -16115,7 +16115,7 @@
       <c r="E145" s="12"/>
       <c r="F145" s="158"/>
     </row>
-    <row r="146" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>666</v>
       </c>
@@ -16131,7 +16131,7 @@
       <c r="E146" s="12"/>
       <c r="F146" s="159"/>
     </row>
-    <row r="147" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>667</v>
       </c>
@@ -16147,7 +16147,7 @@
       <c r="E147" s="12"/>
       <c r="F147" s="160"/>
     </row>
-    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>668</v>
       </c>
@@ -16163,7 +16163,7 @@
       <c r="E148" s="12"/>
       <c r="F148" s="161"/>
     </row>
-    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>669</v>
       </c>
@@ -16179,7 +16179,7 @@
       <c r="E149" s="12"/>
       <c r="F149" s="162"/>
     </row>
-    <row r="150" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>670</v>
       </c>
@@ -16195,7 +16195,7 @@
       <c r="E150" s="12"/>
       <c r="F150" s="163"/>
     </row>
-    <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>671</v>
       </c>
@@ -16211,7 +16211,7 @@
       <c r="E151" s="12"/>
       <c r="F151" s="164"/>
     </row>
-    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>672</v>
       </c>
@@ -16227,7 +16227,7 @@
       <c r="E152" s="12"/>
       <c r="F152" s="165"/>
     </row>
-    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>673</v>
       </c>
@@ -16243,7 +16243,7 @@
       <c r="E153" s="12"/>
       <c r="F153" s="166"/>
     </row>
-    <row r="154" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>674</v>
       </c>
@@ -16259,7 +16259,7 @@
       <c r="E154" s="12"/>
       <c r="F154" s="167"/>
     </row>
-    <row r="155" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>675</v>
       </c>
@@ -16275,7 +16275,7 @@
       <c r="E155" s="12"/>
       <c r="F155" s="168"/>
     </row>
-    <row r="156" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>676</v>
       </c>
@@ -16291,7 +16291,7 @@
       <c r="E156" s="12"/>
       <c r="F156" s="169"/>
     </row>
-    <row r="157" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>677</v>
       </c>
@@ -16307,7 +16307,7 @@
       <c r="E157" s="12"/>
       <c r="F157" s="170"/>
     </row>
-    <row r="158" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>678</v>
       </c>
@@ -16323,7 +16323,7 @@
       <c r="E158" s="12"/>
       <c r="F158" s="171"/>
     </row>
-    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>679</v>
       </c>
@@ -16339,7 +16339,7 @@
       <c r="E159" s="12"/>
       <c r="F159" s="172"/>
     </row>
-    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>680</v>
       </c>
@@ -16355,7 +16355,7 @@
       <c r="E160" s="12"/>
       <c r="F160" s="173"/>
     </row>
-    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>681</v>
       </c>
@@ -16371,7 +16371,7 @@
       <c r="E161" s="12"/>
       <c r="F161" s="174"/>
     </row>
-    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>682</v>
       </c>
@@ -16387,7 +16387,7 @@
       <c r="E162" s="12"/>
       <c r="F162" s="175"/>
     </row>
-    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>683</v>
       </c>
@@ -16403,7 +16403,7 @@
       <c r="E163" s="12"/>
       <c r="F163" s="176"/>
     </row>
-    <row r="164" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>684</v>
       </c>
@@ -16419,7 +16419,7 @@
       <c r="E164" s="12"/>
       <c r="F164" s="177"/>
     </row>
-    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>685</v>
       </c>
@@ -16435,7 +16435,7 @@
       <c r="E165" s="12"/>
       <c r="F165" s="178"/>
     </row>
-    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>686</v>
       </c>
@@ -16451,7 +16451,7 @@
       <c r="E166" s="12"/>
       <c r="F166" s="179"/>
     </row>
-    <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>687</v>
       </c>
@@ -16467,7 +16467,7 @@
       <c r="E167" s="12"/>
       <c r="F167" s="180"/>
     </row>
-    <row r="168" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>688</v>
       </c>
@@ -16483,7 +16483,7 @@
       <c r="E168" s="12"/>
       <c r="F168" s="181"/>
     </row>
-    <row r="169" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>689</v>
       </c>
@@ -16499,7 +16499,7 @@
       <c r="E169" s="12"/>
       <c r="F169" s="182"/>
     </row>
-    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>690</v>
       </c>
@@ -16515,7 +16515,7 @@
       <c r="E170" s="12"/>
       <c r="F170" s="183"/>
     </row>
-    <row r="171" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>691</v>
       </c>
@@ -16531,7 +16531,7 @@
       <c r="E171" s="12"/>
       <c r="F171" s="184"/>
     </row>
-    <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>692</v>
       </c>
@@ -16547,7 +16547,7 @@
       <c r="E172" s="12"/>
       <c r="F172" s="185"/>
     </row>
-    <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>693</v>
       </c>
@@ -16563,7 +16563,7 @@
       <c r="E173" s="12"/>
       <c r="F173" s="186"/>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>694</v>
       </c>
@@ -16579,7 +16579,7 @@
       <c r="E174" s="12"/>
       <c r="F174" s="187"/>
     </row>
-    <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>695</v>
       </c>
@@ -16595,7 +16595,7 @@
       <c r="E175" s="12"/>
       <c r="F175" s="188"/>
     </row>
-    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>696</v>
       </c>
